--- a/successive_pairs.xlsx
+++ b/successive_pairs.xlsx
@@ -232,37 +232,37 @@
     <t>{56}</t>
   </si>
   <si>
-    <t>{'Ellen McDermott', 'Lexi Dowle', 'Lucy Ella-Foster', 'Ellie Morrow', 'Joey Chan', 'Elizabeth Loveder', 'Kiki Stavrakara', 'Henry Richardson', 'Emma Morris', 'Phoebe Ponsford', 'Cara Lynch', 'Beth Day', 'Teresa Bolger-Hill', 'Hannah Dare', 'Samantha Stott', 'Sue Gaastra', 'Graham Broad', 'Laura Boswell', 'Philippa Wilding', 'Kiah Whitehead', 'Dave Pound', 'Amanda Carey-McDermott', 'Sonia Huntley-Robertson', 'Lindsey McBratney', 'Kelly Brewer', 'Evan Huntley-Robertson', 'Heather Bokota', 'Aimee Burton', 'Patrick Coad', 'Eveey Ruth', 'Tim Beasley', 'Stephanie Gaunt', 'Emma Culley', 'Holly Thompson', 'Alan Wyle', 'Nick Reigate', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Sharon Forsyth', 'Will McDermott', 'Sanchez Simpson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Findlay'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Lindsey McBratney', 'Ellen McDermott', 'Kelly Brewer', 'Lexi Dowle', 'Lynda Lawrence', 'Evan Huntley-Robertson', 'Heather Bokota', 'Aimee Burton', 'Lucy Ella-Foster', 'Patrick Coad', 'Ellie Morrow', 'Elizabeth Loveder', 'Joey Chan', 'Eveey Ruth', 'Kiki Stavrakara', 'Henry Richardson', 'Emma Morris', 'Tim Beasley', 'Phoebe Ponsford', 'Cara Lynch', 'Stephanie Gaunt', 'Beth Day', 'Emma Culley', 'Teresa Bolger-Hill', 'Hannah Dare', 'Holly Thompson', 'Alan Wyle', 'Samantha Stott', 'Nick Reigate', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Sue Gaastra', 'Sharon Forsyth', 'Graham Broad', 'Laura Boswell', 'Philippa Wilding', 'Kiah Whitehead', 'Will McDermott', 'Sanchez Simpson', 'Dave Pound', 'Colin Bousfield', 'Amanda Carey-McDermott', 'Sophie Findlay'}</t>
-  </si>
-  <si>
-    <t>{'Ellen McDermott', 'Lexi Dowle', 'Lucy Ella-Foster', 'Ellie Morrow', 'Elizabeth Loveder', 'Joey Chan', 'Kiki Stavrakara', 'Henry Richardson', 'Emma Morris', 'Phoebe Ponsford', 'Cara Lynch', 'Beth Day', 'Teresa Bolger-Hill', 'Hannah Dare', 'Samantha Stott', 'Sue Gaastra', 'Graham Broad', 'Laura Boswell', 'Philippa Wilding', 'Kiah Whitehead', 'Dave Pound', 'Amanda Carey-McDermott', 'Sonia Huntley-Robertson', 'Lindsey McBratney', 'Kelly Brewer', 'Evan Huntley-Robertson', 'Heather Bokota', 'Aimee Burton', 'Patrick Coad', 'Eveey Ruth', 'Tim Beasley', 'Stephanie Gaunt', 'Emma Culley', 'Holly Thompson', 'Alan Wyle', 'Nick Reigate', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Charlotte Regan', 'Sharon Forsyth', 'Will McDermott', 'Sanchez Simpson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Findlay'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Hannah Dare', 'Holly Thompson', 'Kelly Brewer', 'Heather Bokota', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Ellie Morrow', 'Laura Boswell', 'Philippa Wilding', 'Kiah Whitehead', 'Cara Lynch', 'Emma Culley'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Holly Thompson', 'Lindsey McBratney', 'Nick Reigate', 'Patrick Coad', 'Katharine Mann', 'Bertie Chatfield', 'Joey Chan', 'Eveey Ruth', 'Graham Broad', 'Henry Richardson', 'Emma Morris', 'Tim Beasley', 'Will McDermott', 'Phoebe Ponsford', 'Sanchez Simpson', 'Dave Pound', 'Colin Bousfield', 'Amanda Carey-McDermott'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Lindsey McBratney', 'Ellen McDermott', 'Kelly Brewer', 'Lexi Dowle', 'Lynda Lawrence', 'Evan Huntley-Robertson', 'Heather Bokota', 'Aimee Burton', 'Lucy Ella-Foster', 'Patrick Coad', 'Ellie Morrow', 'Elizabeth Loveder', 'Joey Chan', 'Eveey Ruth', 'Kiki Stavrakara', 'Henry Richardson', 'Emma Morris', 'Tim Beasley', 'Phoebe Ponsford', 'Cara Lynch', 'Stephanie Gaunt', 'Colin Bousfield', 'Beth Day', 'Emma Culley', 'Teresa Bolger-Hill', 'Hannah Dare', 'Holly Thompson', 'Alan Wyle', 'Samantha Stott', 'Nick Reigate', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Sue Gaastra', 'Sharon Forsyth', 'Graham Broad', 'Laura Boswell', 'Philippa Wilding', 'Kiah Whitehead', 'Will McDermott', 'Sanchez Simpson', 'Dave Pound', 'Charlotte Regan', 'Amanda Carey-McDermott', 'Sophie Findlay'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Katharine Mann', 'Holly Thompson', 'Eveey Ruth', 'Graham Broad', 'Emma Morris', 'Lindsey McBratney', 'Tim Beasley', 'Phoebe Ponsford', 'Evan Huntley-Robertson', 'Patrick Coad', 'Emma Culley', 'Amanda Carey-McDermott', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Holly Thompson', 'Graham Broad', 'Lindsey McBratney', 'Ellen McDermott', 'Kiah Whitehead', 'Stephanie Gaunt', 'Sanchez Simpson', 'Nick Reigate', 'Lucy Ella-Foster', 'Emma Culley'}</t>
-  </si>
-  <si>
-    <t>{'Lindsey McBratney', 'Ellen McDermott', 'Lucy Ella-Foster', 'Patrick Coad', 'Kiki Stavrakara', 'Emma Morris', 'Tim Beasley', 'Phoebe Ponsford', 'Stephanie Gaunt', 'Teresa Bolger-Hill', 'Samantha Stott', 'Nick Reigate', 'Sophie Coad', 'Sue Gaastra', 'Sharon Forsyth', 'Kiah Whitehead', 'Lynda Lawrence', 'Colin Bousfield', 'Amanda Carey-McDermott'}</t>
+    <t>{'Laura Boswell', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Dave Pound', 'Alan Wyle', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Katharine Mann', 'Hannah Dare', 'Graham Broad', 'Joey Chan', 'Aimee Burton', 'Teresa Bolger-Hill', 'Kelly Brewer', 'Heather Bokota', 'Lucy Ella-Foster', 'Henry Richardson', 'Kiki Stavrakara', 'Holly Thompson', 'Ellen McDermott', 'Nick Reigate', 'Cara Lynch', 'Sharon Forsyth', 'Samantha Stott', 'Eveey Ruth', 'Kiah Whitehead', 'Ellen da Costa', 'Philippa Wilding', 'Will McDermott', 'Sophie Findlay', 'Sue Gaastra', 'Lexi Dowle', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Hannah Dare', 'Graham Broad', 'Philippa Wilding', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Lexi Dowle', 'Sue Gaastra', 'Kelly Brewer', 'Heather Bokota', 'Teresa Bolger-Hill', 'Will McDermott', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Laura Boswell', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Charlotte Regan', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Dave Pound', 'Alan Wyle', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Katharine Mann', 'Hannah Dare', 'Graham Broad', 'Joey Chan', 'Aimee Burton', 'Teresa Bolger-Hill', 'Kelly Brewer', 'Heather Bokota', 'Lucy Ella-Foster', 'Henry Richardson', 'Kiki Stavrakara', 'Holly Thompson', 'Ellen McDermott', 'Nick Reigate', 'Cara Lynch', 'Sharon Forsyth', 'Samantha Stott', 'Eveey Ruth', 'Kiah Whitehead', 'Ellen da Costa', 'Philippa Wilding', 'Sophie Findlay', 'Sue Gaastra', 'Will McDermott', 'Lexi Dowle', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Emma Culley', 'Laura Boswell', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Henry Richardson', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Colin Bousfield', 'Graham Broad', 'Holly Thompson', 'Emma Morris', 'Joey Chan', 'Will McDermott', 'Phoebe Ponsford', 'Tim Beasley', 'Nick Reigate', 'Dave Pound', 'Bertie Chatfield'}</t>
+  </si>
+  <si>
+    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Charlotte Regan', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Kiah Whitehead', 'Katharine Mann', 'Ellen da Costa', 'Hannah Dare', 'Graham Broad', 'Philippa Wilding', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Lexi Dowle', 'Sue Gaastra', 'Kelly Brewer', 'Heather Bokota', 'Teresa Bolger-Hill', 'Will McDermott', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Emma Culley', 'Emma Morris', 'Holly Thompson', 'Amanda Carey-McDermott', 'Lindsey McBratney', 'Phoebe Ponsford', 'Tim Beasley', 'Patrick Coad', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Ellen da Costa', 'Evan Huntley-Robertson', 'Graham Broad'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Emma Culley', 'Holly Thompson', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Ellen McDermott', 'Nick Reigate', 'Stephanie Gaunt', 'Katharine Mann', 'Kiah Whitehead', 'Graham Broad'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Stephanie Gaunt', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Sharon Forsyth', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Kiah Whitehead', 'Sue Gaastra', 'Teresa Bolger-Hill'}</t>
   </si>
   <si>
     <t>{'Sanchez Simpson', 'Nick Reigate'}</t>
   </si>
   <si>
-    <t>{'Sanchez Simpson', 'Evan Huntley-Robertson', 'Tim Beasley', 'Lexi Dowle'}</t>
+    <t>{'Sanchez Simpson', 'Evan Huntley-Robertson', 'Lexi Dowle', 'Tim Beasley'}</t>
   </si>
   <si>
     <t>{32, 47}</t>
@@ -304,43 +304,43 @@
     <t>{49}</t>
   </si>
   <si>
-    <t>{'Holly Thompson', 'Ellen McDermott', 'Kelly Brewer', 'Lexi Dowle', 'Nick Reigate', 'Patrick Coad', 'Ellen da Costa', 'Sophie Coad', 'Bertie Chatfield', 'Elizabeth Loveder', 'Eveey Ruth', 'Laura Boswell', 'Emma Morris', 'Tim Beasley', 'Kiah Whitehead', 'Will McDermott', 'Cara Lynch', 'Emma Culley'}</t>
-  </si>
-  <si>
-    <t>{'Kiah Whitehead', 'Kelly Brewer', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Lindsey McBratney', 'Ellen McDermott', 'Lynda Lawrence', 'Heather Bokota', 'Aimee Burton', 'Lucy Ella-Foster', 'Patrick Coad', 'Elizabeth Loveder', 'Joey Chan', 'Eveey Ruth', 'Kiki Stavrakara', 'Henry Richardson', 'Emma Morris', 'Phoebe Ponsford', 'Cara Lynch', 'Stephanie Gaunt', 'Beth Day', 'Emma Culley', 'Teresa Bolger-Hill', 'Holly Thompson', 'Alan Wyle', 'Samantha Stott', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Sue Gaastra', 'Sharon Forsyth', 'Laura Boswell', 'Kiah Whitehead', 'Will McDermott', 'Dave Pound', 'Colin Bousfield', 'Amanda Carey-McDermott', 'Sophie Findlay'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Lindsey McBratney', 'Ellen McDermott', 'Kelly Brewer', 'Lexi Dowle', 'Evan Huntley-Robertson', 'Heather Bokota', 'Aimee Burton', 'Lucy Ella-Foster', 'Patrick Coad', 'Ellie Morrow', 'Elizabeth Loveder', 'Joey Chan', 'Eveey Ruth', 'Kiki Stavrakara', 'Henry Richardson', 'Emma Morris', 'Tim Beasley', 'Dave Pound', 'Cara Lynch', 'Phoebe Ponsford', 'Stephanie Gaunt', 'Beth Day', 'Emma Culley', 'Teresa Bolger-Hill', 'Hannah Dare', 'Holly Thompson', 'Alan Wyle', 'Samantha Stott', 'Nick Reigate', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Charlotte Regan', 'Sue Gaastra', 'Sharon Forsyth', 'Graham Broad', 'Laura Boswell', 'Philippa Wilding', 'Kiah Whitehead', 'Will McDermott', 'Sanchez Simpson', 'Lynda Lawrence', 'Colin Bousfield', 'Amanda Carey-McDermott', 'Sophie Findlay'}</t>
-  </si>
-  <si>
-    <t>{'Sophie Coad', 'Katharine Mann', 'Ellie Morrow', 'Hannah Dare', 'Holly Thompson', 'Laura Boswell', 'Kelly Brewer', 'Philippa Wilding', 'Kiah Whitehead', 'Cara Lynch', 'Heather Bokota', 'Charlotte Regan', 'Emma Culley', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Hannah Dare', 'Holly Thompson', 'Sharon Forsyth', 'Kelly Brewer', 'Philippa Wilding', 'Evan Huntley-Robertson', 'Lucy Ella-Foster'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Hannah Dare', 'Sharon Forsyth', 'Kelly Brewer', 'Philippa Wilding', 'Aimee Burton', 'Charlotte Regan'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Kelly Brewer', 'Lexi Dowle', 'Philippa Wilding', 'Cara Lynch', 'Heather Bokota', 'Lucy Ella-Foster', 'Charlotte Regan', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Hannah Dare', 'Holly Thompson', 'Beth Day', 'Kelly Brewer', 'Philippa Wilding', 'Stephanie Gaunt', 'Evan Huntley-Robertson', 'Lucy Ella-Foster', 'Charlotte Regan'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Katharine Mann', 'Bertie Chatfield', 'Joey Chan', 'Elizabeth Loveder', 'Eveey Ruth', 'Graham Broad', 'Laura Boswell', 'Henry Richardson', 'Emma Morris', 'Tim Beasley', 'Lexi Dowle', 'Will McDermott', 'Cara Lynch', 'Heather Bokota', 'Sanchez Simpson', 'Nick Reigate', 'Lucy Ella-Foster'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Hannah Dare', 'Holly Thompson', 'Kelly Brewer', 'Philippa Wilding', 'Evan Huntley-Robertson'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Evan Huntley-Robertson', 'Philippa Wilding', 'Hannah Dare'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Lucy Ella-Foster', 'Hannah Dare', 'Philippa Wilding'}</t>
+    <t>{'Emma Culley', 'Laura Boswell', 'Patrick Coad', 'Eveey Ruth', 'Kiah Whitehead', 'Ellen da Costa', 'Sophie Coad', 'Holly Thompson', 'Emma Morris', 'Will McDermott', 'Lexi Dowle', 'Tim Beasley', 'Kelly Brewer', 'Ellen McDermott', 'Nick Reigate', 'Cara Lynch', 'Bertie Chatfield', 'Elizabeth Loveder'}</t>
+  </si>
+  <si>
+    <t>{'Kelly Brewer', 'Kiah Whitehead', 'Ellen da Costa'}</t>
+  </si>
+  <si>
+    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Ellen McDermott', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Sue Gaastra', 'Teresa Bolger-Hill', 'Will McDermott', 'Heather Bokota', 'Bertie Chatfield', 'Beth Day'}</t>
+  </si>
+  <si>
+    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Charlotte Regan', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Hannah Dare', 'Philippa Wilding', 'Graham Broad', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Lexi Dowle', 'Sue Gaastra', 'Kelly Brewer', 'Heather Bokota', 'Teresa Bolger-Hill', 'Will McDermott', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Holly Thompson', 'Emma Culley', 'Laura Boswell', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Charlotte Regan', 'Ellie Morrow', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Holly Thompson', 'Lucy Ella-Foster', 'Kelly Brewer', 'Sharon Forsyth', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Aimee Burton', 'Kelly Brewer', 'Sharon Forsyth', 'Charlotte Regan', 'Ellie Morrow', 'Hannah Dare', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Lexi Dowle', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Charlotte Regan', 'Ellie Morrow', 'Ellen da Costa', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Holly Thompson', 'Lucy Ella-Foster', 'Kelly Brewer', 'Stephanie Gaunt', 'Beth Day', 'Charlotte Regan', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Emma Morris', 'Joey Chan', 'Laura Boswell', 'Lucy Ella-Foster', 'Lexi Dowle', 'Tim Beasley', 'Will McDermott', 'Heather Bokota', 'Nick Reigate', 'Henry Richardson', 'Sonia Huntley-Robertson', 'Bertie Chatfield', 'Cara Lynch', 'Eveey Ruth', 'Katharine Mann', 'Elizabeth Loveder', 'Graham Broad'}</t>
+  </si>
+  <si>
+    <t>{'Holly Thompson', 'Kelly Brewer', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Evan Huntley-Robertson', 'Hannah Dare', 'Ellie Morrow', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Hannah Dare', 'Ellie Morrow', 'Lucy Ella-Foster', 'Philippa Wilding'}</t>
   </si>
   <si>
     <t>{30, 23}</t>
@@ -391,40 +391,40 @@
     <t>{44}</t>
   </si>
   <si>
-    <t>{'Ellen McDermott', 'Kelly Brewer', 'Lexi Dowle', 'Heather Bokota', 'Nick Reigate', 'Lucy Ella-Foster', 'Patrick Coad', 'Ellen da Costa', 'Sophie Coad', 'Ellie Morrow', 'Bertie Chatfield', 'Charlotte Regan', 'Joey Chan', 'Elizabeth Loveder', 'Eveey Ruth', 'Graham Broad', 'Laura Boswell', 'Henry Richardson', 'Emma Morris', 'Tim Beasley', 'Philippa Wilding', 'Will McDermott', 'Cara Lynch', 'Sanchez Simpson', 'Dave Pound', 'Colin Bousfield', 'Emma Culley'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Holly Thompson', 'Lindsey McBratney', 'Ellen McDermott', 'Lexi Dowle', 'Nick Reigate', 'Patrick Coad', 'Ellen da Costa', 'Sophie Coad', 'Katharine Mann', 'Bertie Chatfield', 'Elizabeth Loveder', 'Eveey Ruth', 'Graham Broad', 'Laura Boswell', 'Emma Morris', 'Tim Beasley', 'Phoebe Ponsford', 'Amanda Carey-McDermott'}</t>
-  </si>
-  <si>
-    <t>{'Hannah Dare', 'Holly Thompson', 'Lindsey McBratney', 'Ellen McDermott', 'Kelly Brewer', 'Evan Huntley-Robertson', 'Nick Reigate', 'Lucy Ella-Foster', 'Katharine Mann', 'Ellie Morrow', 'Sharon Forsyth', 'Graham Broad', 'Philippa Wilding', 'Kiah Whitehead', 'Stephanie Gaunt', 'Sanchez Simpson', 'Emma Culley'}</t>
-  </si>
-  <si>
-    <t>{'Lucy Ella-Foster', 'Evan Huntley-Robertson', 'Eveey Ruth', 'Sanchez Simpson', 'Laura Boswell', 'Tim Beasley', 'Lexi Dowle'}</t>
-  </si>
-  <si>
-    <t>{'Bertie Chatfield', 'Joey Chan', 'Emma Morris', 'Ellen McDermott', 'Tim Beasley', 'Phoebe Ponsford', 'Sanchez Simpson', 'Lynda Lawrence', 'Teresa Bolger-Hill'}</t>
-  </si>
-  <si>
-    <t>{'Bertie Chatfield', 'Joey Chan', 'Graham Broad', 'Henry Richardson', 'Tim Beasley', 'Will McDermott', 'Sanchez Simpson', 'Nick Reigate', 'Dave Pound', 'Colin Bousfield', 'Patrick Coad'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Katharine Mann', 'Sophie Coad', 'Laura Boswell', 'Cara Lynch', 'Heather Bokota', 'Sanchez Simpson', 'Emma Culley', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Kelly Brewer', 'Lexi Dowle', 'Philippa Wilding', 'Kiah Whitehead', 'Cara Lynch', 'Heather Bokota', 'Lucy Ella-Foster', 'Charlotte Regan', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Katharine Mann', 'Holly Thompson', 'Eveey Ruth', 'Graham Broad', 'Emma Morris', 'Lindsey McBratney', 'Phoebe Ponsford', 'Nick Reigate', 'Patrick Coad', 'Amanda Carey-McDermott'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Hannah Dare', 'Holly Thompson', 'Kelly Brewer', 'Philippa Wilding', 'Stephanie Gaunt', 'Evan Huntley-Robertson', 'Lucy Ella-Foster', 'Charlotte Regan'}</t>
-  </si>
-  <si>
-    <t>{'Sonia Huntley-Robertson', 'Bertie Chatfield', 'Joey Chan', 'Graham Broad', 'Laura Boswell', 'Emma Morris', 'Lexi Dowle', 'Heather Bokota', 'Nick Reigate', 'Lucy Ella-Foster'}</t>
-  </si>
-  <si>
-    <t>{'Evan Huntley-Robertson', 'Emma Culley', 'Tim Beasley', 'Ellen da Costa'}</t>
+    <t>{'Sanchez Simpson', 'Emma Culley', 'Laura Boswell', 'Lucy Ella-Foster', 'Patrick Coad', 'Henry Richardson', 'Eveey Ruth', 'Charlotte Regan', 'Colin Bousfield', 'Ellen da Costa', 'Sophie Coad', 'Philippa Wilding', 'Graham Broad', 'Emma Morris', 'Joey Chan', 'Will McDermott', 'Lexi Dowle', 'Tim Beasley', 'Kelly Brewer', 'Heather Bokota', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Cara Lynch', 'Bertie Chatfield', 'Ellie Morrow', 'Elizabeth Loveder'}</t>
+  </si>
+  <si>
+    <t>{'Lindsey McBratney', 'Laura Boswell', 'Amanda Carey-McDermott', 'Patrick Coad', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Ellen da Costa', 'Sophie Coad', 'Graham Broad', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Lexi Dowle', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Bertie Chatfield', 'Elizabeth Loveder'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Katharine Mann', 'Kiah Whitehead', 'Hannah Dare', 'Graham Broad', 'Philippa Wilding', 'Holly Thompson', 'Kelly Brewer', 'Ellen McDermott', 'Nick Reigate', 'Sharon Forsyth', 'Ellie Morrow', 'Evan Huntley-Robertson'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Laura Boswell', 'Lucy Ella-Foster', 'Lexi Dowle', 'Tim Beasley', 'Evan Huntley-Robertson', 'Eveey Ruth'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Emma Morris', 'Phoebe Ponsford', 'Joey Chan', 'Teresa Bolger-Hill', 'Tim Beasley', 'Ellen McDermott', 'Bertie Chatfield', 'Lynda Lawrence'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Joey Chan', 'Will McDermott', 'Tim Beasley', 'Patrick Coad', 'Nick Reigate', 'Henry Richardson', 'Dave Pound', 'Bertie Chatfield', 'Colin Bousfield', 'Graham Broad'}</t>
+  </si>
+  <si>
+    <t>{'Sanchez Simpson', 'Emma Culley', 'Laura Boswell', 'Heather Bokota', 'Sonia Huntley-Robertson', 'Cara Lynch', 'Katharine Mann', 'Ellen da Costa', 'Sophie Coad'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Lexi Dowle', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Kiah Whitehead', 'Charlotte Regan', 'Ellie Morrow', 'Ellen da Costa', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Holly Thompson', 'Emma Morris', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Phoebe Ponsford', 'Patrick Coad', 'Nick Reigate', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Graham Broad'}</t>
+  </si>
+  <si>
+    <t>{'Holly Thompson', 'Lucy Ella-Foster', 'Kelly Brewer', 'Stephanie Gaunt', 'Charlotte Regan', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Emma Morris', 'Joey Chan', 'Laura Boswell', 'Lucy Ella-Foster', 'Lexi Dowle', 'Heather Bokota', 'Nick Reigate', 'Sonia Huntley-Robertson', 'Bertie Chatfield', 'Graham Broad'}</t>
+  </si>
+  <si>
+    <t>{'Emma Culley', 'Evan Huntley-Robertson', 'Tim Beasley', 'Ellen da Costa'}</t>
   </si>
 </sst>
 </file>

--- a/successive_pairs.xlsx
+++ b/successive_pairs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
   <si>
     <t>song_name</t>
   </si>
@@ -199,6 +199,9 @@
     <t>cast</t>
   </si>
   <si>
+    <t>songs</t>
+  </si>
+  <si>
     <t>{1, 2}</t>
   </si>
   <si>
@@ -232,37 +235,52 @@
     <t>{56}</t>
   </si>
   <si>
-    <t>{'Laura Boswell', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Dave Pound', 'Alan Wyle', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Katharine Mann', 'Hannah Dare', 'Graham Broad', 'Joey Chan', 'Aimee Burton', 'Teresa Bolger-Hill', 'Kelly Brewer', 'Heather Bokota', 'Lucy Ella-Foster', 'Henry Richardson', 'Kiki Stavrakara', 'Holly Thompson', 'Ellen McDermott', 'Nick Reigate', 'Cara Lynch', 'Sharon Forsyth', 'Samantha Stott', 'Eveey Ruth', 'Kiah Whitehead', 'Ellen da Costa', 'Philippa Wilding', 'Will McDermott', 'Sophie Findlay', 'Sue Gaastra', 'Lexi Dowle', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
-  </si>
-  <si>
-    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Hannah Dare', 'Graham Broad', 'Philippa Wilding', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Lexi Dowle', 'Sue Gaastra', 'Kelly Brewer', 'Heather Bokota', 'Teresa Bolger-Hill', 'Will McDermott', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
-  </si>
-  <si>
-    <t>{'Laura Boswell', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Charlotte Regan', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Dave Pound', 'Alan Wyle', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Katharine Mann', 'Hannah Dare', 'Graham Broad', 'Joey Chan', 'Aimee Burton', 'Teresa Bolger-Hill', 'Kelly Brewer', 'Heather Bokota', 'Lucy Ella-Foster', 'Henry Richardson', 'Kiki Stavrakara', 'Holly Thompson', 'Ellen McDermott', 'Nick Reigate', 'Cara Lynch', 'Sharon Forsyth', 'Samantha Stott', 'Eveey Ruth', 'Kiah Whitehead', 'Ellen da Costa', 'Philippa Wilding', 'Sophie Findlay', 'Sue Gaastra', 'Will McDermott', 'Lexi Dowle', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
-  </si>
-  <si>
-    <t>{'Emma Culley', 'Laura Boswell', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Ellie Morrow'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Henry Richardson', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Colin Bousfield', 'Graham Broad', 'Holly Thompson', 'Emma Morris', 'Joey Chan', 'Will McDermott', 'Phoebe Ponsford', 'Tim Beasley', 'Nick Reigate', 'Dave Pound', 'Bertie Chatfield'}</t>
-  </si>
-  <si>
-    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Charlotte Regan', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Kiah Whitehead', 'Katharine Mann', 'Ellen da Costa', 'Hannah Dare', 'Graham Broad', 'Philippa Wilding', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Lexi Dowle', 'Sue Gaastra', 'Kelly Brewer', 'Heather Bokota', 'Teresa Bolger-Hill', 'Will McDermott', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
-  </si>
-  <si>
-    <t>{'Emma Culley', 'Emma Morris', 'Holly Thompson', 'Amanda Carey-McDermott', 'Lindsey McBratney', 'Phoebe Ponsford', 'Tim Beasley', 'Patrick Coad', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Ellen da Costa', 'Evan Huntley-Robertson', 'Graham Broad'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Emma Culley', 'Holly Thompson', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Ellen McDermott', 'Nick Reigate', 'Stephanie Gaunt', 'Katharine Mann', 'Kiah Whitehead', 'Graham Broad'}</t>
-  </si>
-  <si>
-    <t>{'Lucy Ella-Foster', 'Stephanie Gaunt', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Sharon Forsyth', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Kiah Whitehead', 'Sue Gaastra', 'Teresa Bolger-Hill'}</t>
+    <t>{'Katharine Mann', 'Alan Wyle', 'Lexi Dowle', 'Aimee Burton', 'Lynda Lawrence', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Nick Reigate', 'Sophie Findlay', 'Sanchez Simpson', 'Beth Day', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Bertie Chatfield', 'Joey Chan', 'Colin Bousfield', 'Kelly Brewer', 'Heather Bokota', 'Dave Pound', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Phoebe Ponsford', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellen McDermott', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Dave Pound', 'Katharine Mann', 'Alan Wyle', 'Lexi Dowle', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Nick Reigate', 'Sophie Findlay', 'Stephanie Gaunt', 'Sanchez Simpson', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Lexi Dowle', 'Alan Wyle', 'Charlotte Regan', 'Aimee Burton', 'Lynda Lawrence', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Nick Reigate', 'Sophie Findlay', 'Sanchez Simpson', 'Beth Day', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Dave Pound', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Phoebe Ponsford', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellen McDermott', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Cara Lynch', 'Hannah Dare', 'Emma Culley', 'Sophie Coad', 'Ellie Morrow', 'Ellen da Costa', 'Sonia Huntley-Robertson', 'Laura Boswell', 'Kiah Whitehead', 'Holly Thompson', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Dave Pound', 'Katharine Mann', 'Eveey Ruth', 'Tim Beasley', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Patrick Coad', 'Lindsey McBratney', 'Bertie Chatfield', 'Holly Thompson', 'Graham Broad', 'Colin Bousfield', 'Joey Chan', 'Nick Reigate', 'Amanda Carey-McDermott', 'Sanchez Simpson', 'Phoebe Ponsford'}</t>
+  </si>
+  <si>
+    <t>{'Dave Pound', 'Katharine Mann', 'Alan Wyle', 'Lexi Dowle', 'Charlotte Regan', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Graham Broad', 'Amanda Carey-McDermott', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Nick Reigate', 'Sophie Findlay', 'Stephanie Gaunt', 'Sanchez Simpson', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Patrick Coad', 'Evan Huntley-Robertson', 'Eveey Ruth', 'Lindsey McBratney', 'Emma Culley', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Tim Beasley', 'Ellen da Costa', 'Emma Morris', 'Sonia Huntley-Robertson', 'Phoebe Ponsford'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Ellen McDermott', 'Kiah Whitehead', 'Lindsey McBratney', 'Emma Culley', 'Holly Thompson', 'Graham Broad', 'Nick Reigate', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Emma Morris', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Amanda Carey-McDermott', 'Nick Reigate', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Phoebe Ponsford', 'Sharon Forsyth', 'Teresa Bolger-Hill', 'Tim Beasley', 'Ellen McDermott', 'Colin Bousfield'}</t>
   </si>
   <si>
     <t>{'Sanchez Simpson', 'Nick Reigate'}</t>
   </si>
   <si>
-    <t>{'Sanchez Simpson', 'Evan Huntley-Robertson', 'Lexi Dowle', 'Tim Beasley'}</t>
+    <t>{'Sanchez Simpson', 'Lexi Dowle', 'Tim Beasley', 'Evan Huntley-Robertson'}</t>
+  </si>
+  <si>
+    <t>Drink With Me Blocking, Hard Knock Life Blocking</t>
+  </si>
+  <si>
+    <t>Once We Were Kings Blocking, KONY Chorus Blocking</t>
+  </si>
+  <si>
+    <t>Opening Night Blocking, Goodbye Blocking</t>
+  </si>
+  <si>
+    <t>When He Sees Me Blocking, Hard to be the Bard Blocking</t>
+  </si>
+  <si>
+    <t>Big Spender All Blocking, Why Cause I'm A Guy Blocking</t>
   </si>
   <si>
     <t>{32, 47}</t>
@@ -304,43 +322,46 @@
     <t>{49}</t>
   </si>
   <si>
-    <t>{'Emma Culley', 'Laura Boswell', 'Patrick Coad', 'Eveey Ruth', 'Kiah Whitehead', 'Ellen da Costa', 'Sophie Coad', 'Holly Thompson', 'Emma Morris', 'Will McDermott', 'Lexi Dowle', 'Tim Beasley', 'Kelly Brewer', 'Ellen McDermott', 'Nick Reigate', 'Cara Lynch', 'Bertie Chatfield', 'Elizabeth Loveder'}</t>
-  </si>
-  <si>
-    <t>{'Kelly Brewer', 'Kiah Whitehead', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Ellen McDermott', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Sue Gaastra', 'Teresa Bolger-Hill', 'Will McDermott', 'Heather Bokota', 'Bertie Chatfield', 'Beth Day'}</t>
-  </si>
-  <si>
-    <t>{'Laura Boswell', 'Lucy Ella-Foster', 'Henry Richardson', 'Stephanie Gaunt', 'Sonia Huntley-Robertson', 'Charlotte Regan', 'Lynda Lawrence', 'Colin Bousfield', 'Sophie Coad', 'Kiki Stavrakara', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Alan Wyle', 'Cara Lynch', 'Sharon Forsyth', 'Elizabeth Loveder', 'Evan Huntley-Robertson', 'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Patrick Coad', 'Samantha Stott', 'Eveey Ruth', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Hannah Dare', 'Philippa Wilding', 'Graham Broad', 'Joey Chan', 'Aimee Burton', 'Sophie Findlay', 'Lexi Dowle', 'Sue Gaastra', 'Kelly Brewer', 'Heather Bokota', 'Teresa Bolger-Hill', 'Will McDermott', 'Bertie Chatfield', 'Beth Day', 'Ellie Morrow'}</t>
-  </si>
-  <si>
-    <t>{'Holly Thompson', 'Emma Culley', 'Laura Boswell', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Charlotte Regan', 'Ellie Morrow', 'Katharine Mann', 'Kiah Whitehead', 'Ellen da Costa', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Holly Thompson', 'Lucy Ella-Foster', 'Kelly Brewer', 'Sharon Forsyth', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Aimee Burton', 'Kelly Brewer', 'Sharon Forsyth', 'Charlotte Regan', 'Ellie Morrow', 'Hannah Dare', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Lucy Ella-Foster', 'Lexi Dowle', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Charlotte Regan', 'Ellie Morrow', 'Ellen da Costa', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Holly Thompson', 'Lucy Ella-Foster', 'Kelly Brewer', 'Stephanie Gaunt', 'Beth Day', 'Charlotte Regan', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Emma Morris', 'Joey Chan', 'Laura Boswell', 'Lucy Ella-Foster', 'Lexi Dowle', 'Tim Beasley', 'Will McDermott', 'Heather Bokota', 'Nick Reigate', 'Henry Richardson', 'Sonia Huntley-Robertson', 'Bertie Chatfield', 'Cara Lynch', 'Eveey Ruth', 'Katharine Mann', 'Elizabeth Loveder', 'Graham Broad'}</t>
-  </si>
-  <si>
-    <t>{'Holly Thompson', 'Kelly Brewer', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Evan Huntley-Robertson', 'Hannah Dare', 'Ellie Morrow', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Hannah Dare', 'Ellie Morrow', 'Lucy Ella-Foster', 'Philippa Wilding'}</t>
+    <t>{'Cara Lynch', 'Lexi Dowle', 'Eveey Ruth', 'Emma Culley', 'Sophie Coad', 'Tim Beasley', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Elizabeth Loveder', 'Patrick Coad', 'Ellen McDermott', 'Laura Boswell', 'Kiah Whitehead', 'Bertie Chatfield', 'Holly Thompson', 'Nick Reigate', 'Kelly Brewer'}</t>
+  </si>
+  <si>
+    <t>{'Kiah Whitehead', 'Kelly Brewer', 'Ellen da Costa'}</t>
+  </si>
+  <si>
+    <t>{'Dave Pound', 'Katharine Mann', 'Alan Wyle', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Sophie Findlay', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Heather Bokota'}</t>
+  </si>
+  <si>
+    <t>{'Dave Pound', 'Katharine Mann', 'Lexi Dowle', 'Alan Wyle', 'Charlotte Regan', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Emma Morris', 'Ellen da Costa', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Nick Reigate', 'Sophie Findlay', 'Stephanie Gaunt', 'Sanchez Simpson', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Cara Lynch', 'Hannah Dare', 'Laura Boswell', 'Charlotte Regan', 'Kiah Whitehead', 'Emma Culley', 'Holly Thompson', 'Sophie Coad', 'Ellie Morrow', 'Ellen da Costa', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Sharon Forsyth', 'Hannah Dare', 'Evan Huntley-Robertson', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Lucy Ella-Foster', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Sharon Forsyth', 'Hannah Dare', 'Charlotte Regan', 'Aimee Burton', 'Ellie Morrow', 'Kelly Brewer', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Cara Lynch', 'Lexi Dowle', 'Charlotte Regan', 'Ellie Morrow', 'Kelly Brewer', 'Ellen da Costa', 'Lucy Ella-Foster', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Hannah Dare', 'Evan Huntley-Robertson', 'Charlotte Regan', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Beth Day', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Cara Lynch', 'Lexi Dowle', 'Laura Boswell', 'Elizabeth Loveder', 'Will McDermott', 'Eveey Ruth', 'Bertie Chatfield', 'Joey Chan', 'Graham Broad', 'Nick Reigate', 'Emma Morris', 'Lucy Ella-Foster', 'Tim Beasley', 'Heather Bokota', 'Sonia Huntley-Robertson', 'Sanchez Simpson', 'Henry Richardson'}</t>
+  </si>
+  <si>
+    <t>{'Hannah Dare', 'Evan Huntley-Robertson', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Philippa Wilding', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson'}</t>
+  </si>
+  <si>
+    <t>{'Ellie Morrow', 'Hannah Dare', 'Lucy Ella-Foster', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>Coffee Break Choreo, Meet the Plastics All Choreo</t>
   </si>
   <si>
     <t>{30, 23}</t>
@@ -391,40 +412,70 @@
     <t>{44}</t>
   </si>
   <si>
-    <t>{'Sanchez Simpson', 'Emma Culley', 'Laura Boswell', 'Lucy Ella-Foster', 'Patrick Coad', 'Henry Richardson', 'Eveey Ruth', 'Charlotte Regan', 'Colin Bousfield', 'Ellen da Costa', 'Sophie Coad', 'Philippa Wilding', 'Graham Broad', 'Emma Morris', 'Joey Chan', 'Will McDermott', 'Lexi Dowle', 'Tim Beasley', 'Kelly Brewer', 'Heather Bokota', 'Ellen McDermott', 'Nick Reigate', 'Dave Pound', 'Cara Lynch', 'Bertie Chatfield', 'Ellie Morrow', 'Elizabeth Loveder'}</t>
-  </si>
-  <si>
-    <t>{'Lindsey McBratney', 'Laura Boswell', 'Amanda Carey-McDermott', 'Patrick Coad', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Ellen da Costa', 'Sophie Coad', 'Graham Broad', 'Holly Thompson', 'Emma Morris', 'Phoebe Ponsford', 'Lexi Dowle', 'Tim Beasley', 'Ellen McDermott', 'Nick Reigate', 'Bertie Chatfield', 'Elizabeth Loveder'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Emma Culley', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Katharine Mann', 'Kiah Whitehead', 'Hannah Dare', 'Graham Broad', 'Philippa Wilding', 'Holly Thompson', 'Kelly Brewer', 'Ellen McDermott', 'Nick Reigate', 'Sharon Forsyth', 'Ellie Morrow', 'Evan Huntley-Robertson'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Laura Boswell', 'Lucy Ella-Foster', 'Lexi Dowle', 'Tim Beasley', 'Evan Huntley-Robertson', 'Eveey Ruth'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Emma Morris', 'Phoebe Ponsford', 'Joey Chan', 'Teresa Bolger-Hill', 'Tim Beasley', 'Ellen McDermott', 'Bertie Chatfield', 'Lynda Lawrence'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Joey Chan', 'Will McDermott', 'Tim Beasley', 'Patrick Coad', 'Nick Reigate', 'Henry Richardson', 'Dave Pound', 'Bertie Chatfield', 'Colin Bousfield', 'Graham Broad'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Emma Culley', 'Laura Boswell', 'Heather Bokota', 'Sonia Huntley-Robertson', 'Cara Lynch', 'Katharine Mann', 'Ellen da Costa', 'Sophie Coad'}</t>
-  </si>
-  <si>
-    <t>{'Lucy Ella-Foster', 'Lexi Dowle', 'Kelly Brewer', 'Heather Bokota', 'Cara Lynch', 'Kiah Whitehead', 'Charlotte Regan', 'Ellie Morrow', 'Ellen da Costa', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Holly Thompson', 'Emma Morris', 'Lindsey McBratney', 'Amanda Carey-McDermott', 'Phoebe Ponsford', 'Patrick Coad', 'Nick Reigate', 'Eveey Ruth', 'Sonia Huntley-Robertson', 'Katharine Mann', 'Graham Broad'}</t>
-  </si>
-  <si>
-    <t>{'Holly Thompson', 'Lucy Ella-Foster', 'Kelly Brewer', 'Stephanie Gaunt', 'Charlotte Regan', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Emma Morris', 'Joey Chan', 'Laura Boswell', 'Lucy Ella-Foster', 'Lexi Dowle', 'Heather Bokota', 'Nick Reigate', 'Sonia Huntley-Robertson', 'Bertie Chatfield', 'Graham Broad'}</t>
-  </si>
-  <si>
-    <t>{'Emma Culley', 'Evan Huntley-Robertson', 'Tim Beasley', 'Ellen da Costa'}</t>
+    <t>{'Dave Pound', 'Cara Lynch', 'Lexi Dowle', 'Heather Bokota', 'Charlotte Regan', 'Eveey Ruth', 'Emma Culley', 'Sophie Coad', 'Ellie Morrow', 'Tim Beasley', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Henry Richardson', 'Patrick Coad', 'Elizabeth Loveder', 'Laura Boswell', 'Ellen McDermott', 'Bertie Chatfield', 'Graham Broad', 'Nick Reigate', 'Colin Bousfield', 'Lucy Ella-Foster', 'Joey Chan', 'Kelly Brewer', 'Sanchez Simpson', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Lexi Dowle', 'Eveey Ruth', 'Sophie Coad', 'Tim Beasley', 'Emma Morris', 'Ellen da Costa', 'Sonia Huntley-Robertson', 'Elizabeth Loveder', 'Laura Boswell', 'Ellen McDermott', 'Patrick Coad', 'Lindsey McBratney', 'Bertie Chatfield', 'Holly Thompson', 'Graham Broad', 'Nick Reigate', 'Amanda Carey-McDermott', 'Phoebe Ponsford'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Sharon Forsyth', 'Hannah Dare', 'Evan Huntley-Robertson', 'Emma Culley', 'Ellie Morrow', 'Ellen McDermott', 'Kiah Whitehead', 'Lindsey McBratney', 'Holly Thompson', 'Graham Broad', 'Nick Reigate', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Kelly Brewer', 'Sanchez Simpson', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Lexi Dowle', 'Tim Beasley', 'Laura Boswell', 'Evan Huntley-Robertson', 'Lucy Ella-Foster', 'Eveey Ruth', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Teresa Bolger-Hill', 'Ellen McDermott', 'Bertie Chatfield', 'Lynda Lawrence', 'Joey Chan', 'Tim Beasley', 'Emma Morris', 'Sanchez Simpson', 'Phoebe Ponsford'}</t>
+  </si>
+  <si>
+    <t>{'Dave Pound', 'Will McDermott', 'Patrick Coad', 'Bertie Chatfield', 'Graham Broad', 'Nick Reigate', 'Colin Bousfield', 'Joey Chan', 'Tim Beasley', 'Sanchez Simpson', 'Henry Richardson'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Cara Lynch', 'Laura Boswell', 'Heather Bokota', 'Emma Culley', 'Sophie Coad', 'Ellen da Costa', 'Sanchez Simpson', 'Sonia Huntley-Robertson'}</t>
+  </si>
+  <si>
+    <t>{'Cara Lynch', 'Lexi Dowle', 'Kiah Whitehead', 'Charlotte Regan', 'Ellie Morrow', 'Kelly Brewer', 'Ellen da Costa', 'Lucy Ella-Foster', 'Heather Bokota', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Katharine Mann', 'Patrick Coad', 'Eveey Ruth', 'Lindsey McBratney', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Nick Reigate', 'Emma Morris', 'Sonia Huntley-Robertson', 'Phoebe Ponsford'}</t>
+  </si>
+  <si>
+    <t>{'Hannah Dare', 'Evan Huntley-Robertson', 'Charlotte Regan', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Philippa Wilding'}</t>
+  </si>
+  <si>
+    <t>{'Lexi Dowle', 'Laura Boswell', 'Bertie Chatfield', 'Joey Chan', 'Graham Broad', 'Nick Reigate', 'Emma Morris', 'Lucy Ella-Foster', 'Heather Bokota', 'Sonia Huntley-Robertson'}</t>
+  </si>
+  <si>
+    <t>{'Tim Beasley', 'Emma Culley', 'Ellen da Costa', 'Evan Huntley-Robertson'}</t>
+  </si>
+  <si>
+    <t>KONY Chorus Singing, Michael in the Bathroom Chorus Singing and Blocking</t>
+  </si>
+  <si>
+    <t>On the Highway of Love Backing Singing, Coffee Break no Solos Singing</t>
+  </si>
+  <si>
+    <t>School Song Dancer Singing, Something's Coming Unison All Singing</t>
+  </si>
+  <si>
+    <t>Hard Knock Life Selected Soloists, Gun Song Singing</t>
+  </si>
+  <si>
+    <t>School Song Chorus Singing, Freak Flag Minor Solos Singing</t>
+  </si>
+  <si>
+    <t>Hard to be the Bard Backing Singing, Freak Flag Singing</t>
+  </si>
+  <si>
+    <t>Why Cause I'm A Guy Singing, When I Drive Singing</t>
+  </si>
+  <si>
+    <t>Freak Flag Three Piggies Singing, When He Sees Me Backing Singing</t>
+  </si>
+  <si>
+    <t>Meet the Plastics Trio Only Singing, Candy Store All Singing</t>
+  </si>
+  <si>
+    <t>Big Spender All Singing, Graham and Nick Beetlejuice Singing</t>
   </si>
 </sst>
 </file>
@@ -1248,13 +1299,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1264,126 +1315,162 @@
       <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1393,13 +1480,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1409,148 +1496,190 @@
       <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>0.75</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1560,13 +1689,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1576,181 +1705,232 @@
       <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>110</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/successive_pairs.xlsx
+++ b/successive_pairs.xlsx
@@ -17,11 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="213">
   <si>
     <t>song_name</t>
   </si>
   <si>
+    <t>slot_size</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
     <t>Opening Night Blocking</t>
   </si>
   <si>
@@ -190,18 +199,153 @@
     <t>Gun Song Blocking</t>
   </si>
   <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Choreo</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Lexi Dowle', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Tim Beasley', 'Sharon Forsyth', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Charlotte Regan', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Philippa Wilding', 'Hannah Dare', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Ellie Morrow', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Lexi Dowle', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Tim Beasley', 'Will McDermott', 'Sharon Forsyth', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Ellen McDermott', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Lexi Dowle', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Will McDermott', 'Sharon Forsyth', 'Tim Beasley', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Ellie Morrow', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Will McDermott', 'Sharon Forsyth', 'Ellen da Costa', 'Phoebe Ponsford', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Emma Culley', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Lexi Dowle', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Tim Beasley', 'Sharon Forsyth', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Ellie Morrow', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Lexi Dowle', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Tim Beasley', 'Sharon Forsyth', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Charlotte Regan', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Ellie Morrow', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Amanda Carey-McDermott', 'Dave Pound', 'Sue Gaastra', 'Lynda Lawrence', 'Elizabeth Loveder', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Sophie Findlay', 'Patrick Coad', 'Lexi Dowle', 'Katharine Mann', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Tim Beasley', 'Sharon Forsyth', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Charlotte Regan', 'Lindsey McBratney', 'Alan Wyle', 'Sophie Coad', 'Philippa Wilding', 'Hannah Dare', 'Heather Bokota', 'Henry Richardson', 'Aimee Burton', 'Beth Day', 'Kiah Whitehead', 'Colin Bousfield', 'Laura Boswell', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Ellie Morrow', 'Eveey Ruth', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Kiah Whitehead', 'Laura Boswell', 'Charlotte Regan', 'Kelly Brewer', 'Katharine Mann', 'Sophie Coad', 'Cara Lynch', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Holly Thompson', 'Emma Culley', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Laura Boswell', 'Katharine Mann', 'Sophie Coad', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Heather Bokota', 'Emma Culley'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Kiah Whitehead', 'Laura Boswell', 'Katharine Mann', 'Sophie Coad', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Heather Bokota', 'Emma Culley'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Kiah Whitehead', 'Laura Boswell', 'Kelly Brewer', 'Katharine Mann', 'Sophie Coad', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Holly Thompson', 'Emma Culley', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Kiah Whitehead', 'Laura Boswell', 'Kelly Brewer', 'Katharine Mann', 'Sophie Coad', 'Cara Lynch', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Holly Thompson', 'Emma Culley', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Evan Huntley-Robertson', 'Kelly Brewer', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Sharon Forsyth', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Phoebe Ponsford', 'Emma Morris', 'Teresa Bolger-Hill', 'Joey Chan', 'Tim Beasley', 'Bertie Chatfield', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Aimee Burton', 'Charlotte Regan', 'Hannah Dare', 'Philippa Wilding', 'Kelly Brewer', 'Sharon Forsyth', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Colin Bousfield', 'Dave Pound', 'Patrick Coad', 'Nick Reigate', 'Tim Beasley', 'Joey Chan', 'Graham Broad', 'Will McDermott', 'Henry Richardson', 'Bertie Chatfield', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Lucy Ella-Foster', 'Charlotte Regan', 'Lexi Dowle', 'Cara Lynch', 'Philippa Wilding', 'Heather Bokota', 'Kelly Brewer', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Dave Pound', 'Cara Lynch', 'Bertie Chatfield', 'Patrick Coad', 'Lexi Dowle', 'Joey Chan', 'Kelly Brewer', 'Tim Beasley', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Charlotte Regan', 'Philippa Wilding', 'Heather Bokota', 'Henry Richardson', 'Colin Bousfield', 'Nick Reigate', 'Graham Broad', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Phoebe Ponsford', 'Emma Morris', 'Amanda Carey-McDermott', 'Patrick Coad', 'Graham Broad', 'Lindsey McBratney', 'Katharine Mann', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Eveey Ruth'}</t>
+  </si>
+  <si>
+    <t>{'Phoebe Ponsford', 'Emma Morris', 'Amanda Carey-McDermott', 'Graham Broad', 'Lindsey McBratney', 'Patrick Coad', 'Katharine Mann', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Eveey Ruth'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Phoebe Ponsford', 'Emma Morris', 'Evan Huntley-Robertson', 'Amanda Carey-McDermott', 'Graham Broad', 'Lindsey McBratney', 'Patrick Coad', 'Katharine Mann', 'Sonia Huntley-Robertson', 'Tim Beasley', 'Emma Culley', 'Eveey Ruth', 'Holly Thompson'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Beth Day', 'Evan Huntley-Robertson', 'Charlotte Regan', 'Kelly Brewer', 'Stephanie Gaunt', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Evan Huntley-Robertson', 'Charlotte Regan', 'Kelly Brewer', 'Stephanie Gaunt', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Ellen McDermott', 'Emma Morris', 'Laura Boswell', 'Eveey Ruth', 'Patrick Coad', 'Nick Reigate', 'Lexi Dowle', 'Elizabeth Loveder', 'Sophie Coad', 'Tim Beasley', 'Emma Culley', 'Bertie Chatfield'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Ellen McDermott', 'Emma Morris', 'Laura Boswell', 'Patrick Coad', 'Eveey Ruth', 'Nick Reigate', 'Lexi Dowle', 'Elizabeth Loveder', 'Sophie Coad', 'Tim Beasley', 'Emma Culley', 'Bertie Chatfield'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Kiah Whitehead', 'Lucy Ella-Foster', 'Lindsey McBratney', 'Nick Reigate', 'Katharine Mann', 'Stephanie Gaunt', 'Graham Broad', 'Emma Culley', 'Holly Thompson', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Amanda Carey-McDermott', 'Sue Gaastra', 'Lynda Lawrence', 'Emma Morris', 'Patrick Coad', 'Samantha Stott', 'Tim Beasley', 'Sharon Forsyth', 'Phoebe Ponsford', 'Lindsey McBratney', 'Sophie Coad', 'Kiah Whitehead', 'Colin Bousfield', 'Nick Reigate', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Teresa Bolger-Hill'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Emma Morris', 'Laura Boswell', 'Eveey Ruth', 'Nick Reigate', 'Lexi Dowle', 'Elizabeth Loveder', 'Katharine Mann', 'Joey Chan', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Tim Beasley', 'Heather Bokota', 'Graham Broad', 'Will McDermott', 'Henry Richardson', 'Bertie Chatfield', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Ellen McDermott', 'Emma Morris', 'Laura Boswell', 'Eveey Ruth', 'Nick Reigate', 'Lexi Dowle', 'Elizabeth Loveder', 'Sophie Coad', 'Tim Beasley', 'Bertie Chatfield'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Emma Morris', 'Laura Boswell', 'Nick Reigate', 'Lexi Dowle', 'Joey Chan', 'Sonia Huntley-Robertson', 'Heather Bokota', 'Graham Broad', 'Bertie Chatfield'}</t>
+  </si>
+  <si>
+    <t>{'Evan Huntley-Robertson', 'Kelly Brewer', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Evan Huntley-Robertson', 'Philippa Wilding', 'Ellie Morrow', 'Hannah Dare'}</t>
+  </si>
+  <si>
+    <t>{'Kelly Brewer', 'Ellen da Costa', 'Kiah Whitehead'}</t>
+  </si>
+  <si>
+    <t>{'Evan Huntley-Robertson', 'Ellen da Costa', 'Emma Culley', 'Tim Beasley'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Kiah Whitehead', 'Kelly Brewer', 'Cara Lynch', 'Holly Thompson', 'Will McDermott'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Eveey Ruth', 'Laura Boswell'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Philippa Wilding', 'Ellie Morrow', 'Hannah Dare'}</t>
+  </si>
+  <si>
+    <t>{'Sonia Huntley-Robertson', 'Laura Boswell', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Emma Morris', 'Lynda Lawrence'}</t>
+  </si>
+  <si>
+    <t>{'Nick Reigate', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Evan Huntley-Robertson', 'Lexi Dowle', 'Tim Beasley', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Graham Broad', 'Nick Reigate'}</t>
+  </si>
+  <si>
     <t>pair_indices</t>
   </si>
   <si>
-    <t>slot_size</t>
-  </si>
-  <si>
-    <t>cast</t>
-  </si>
-  <si>
     <t>songs</t>
   </si>
   <si>
+    <t>Choreo_possible_pairs</t>
+  </si>
+  <si>
+    <t>MD_possible_pairs</t>
+  </si>
+  <si>
     <t>{1, 2}</t>
   </si>
   <si>
@@ -235,37 +379,16 @@
     <t>{56}</t>
   </si>
   <si>
-    <t>{'Katharine Mann', 'Alan Wyle', 'Lexi Dowle', 'Aimee Burton', 'Lynda Lawrence', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Nick Reigate', 'Sophie Findlay', 'Sanchez Simpson', 'Beth Day', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Bertie Chatfield', 'Joey Chan', 'Colin Bousfield', 'Kelly Brewer', 'Heather Bokota', 'Dave Pound', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Phoebe Ponsford', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellen McDermott', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Dave Pound', 'Katharine Mann', 'Alan Wyle', 'Lexi Dowle', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Nick Reigate', 'Sophie Findlay', 'Stephanie Gaunt', 'Sanchez Simpson', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Lexi Dowle', 'Alan Wyle', 'Charlotte Regan', 'Aimee Burton', 'Lynda Lawrence', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Nick Reigate', 'Sophie Findlay', 'Sanchez Simpson', 'Beth Day', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Dave Pound', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Phoebe Ponsford', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellen McDermott', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Cara Lynch', 'Hannah Dare', 'Emma Culley', 'Sophie Coad', 'Ellie Morrow', 'Ellen da Costa', 'Sonia Huntley-Robertson', 'Laura Boswell', 'Kiah Whitehead', 'Holly Thompson', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Dave Pound', 'Katharine Mann', 'Eveey Ruth', 'Tim Beasley', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Patrick Coad', 'Lindsey McBratney', 'Bertie Chatfield', 'Holly Thompson', 'Graham Broad', 'Colin Bousfield', 'Joey Chan', 'Nick Reigate', 'Amanda Carey-McDermott', 'Sanchez Simpson', 'Phoebe Ponsford'}</t>
-  </si>
-  <si>
-    <t>{'Dave Pound', 'Katharine Mann', 'Alan Wyle', 'Lexi Dowle', 'Charlotte Regan', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Graham Broad', 'Amanda Carey-McDermott', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Nick Reigate', 'Sophie Findlay', 'Stephanie Gaunt', 'Sanchez Simpson', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Patrick Coad', 'Evan Huntley-Robertson', 'Eveey Ruth', 'Lindsey McBratney', 'Emma Culley', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Tim Beasley', 'Ellen da Costa', 'Emma Morris', 'Sonia Huntley-Robertson', 'Phoebe Ponsford'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Ellen McDermott', 'Kiah Whitehead', 'Lindsey McBratney', 'Emma Culley', 'Holly Thompson', 'Graham Broad', 'Nick Reigate', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Sanchez Simpson'}</t>
-  </si>
-  <si>
-    <t>{'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Emma Morris', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Amanda Carey-McDermott', 'Nick Reigate', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Phoebe Ponsford', 'Sharon Forsyth', 'Teresa Bolger-Hill', 'Tim Beasley', 'Ellen McDermott', 'Colin Bousfield'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Nick Reigate'}</t>
-  </si>
-  <si>
-    <t>{'Sanchez Simpson', 'Lexi Dowle', 'Tim Beasley', 'Evan Huntley-Robertson'}</t>
+    <t>{'Lucy Ella-Foster', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Bertie Chatfield', 'Emma Morris', 'Patrick Coad', 'Katharine Mann', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Lindsey McBratney', 'Alan Wyle', 'Hannah Dare', 'Heather Bokota', 'Henry Richardson', 'Kiah Whitehead', 'Laura Boswell', 'Evan Huntley-Robertson', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Ellie Morrow', 'Teresa Bolger-Hill', 'Ellen McDermott', 'Amanda Carey-McDermott', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Sophie Findlay', 'Lexi Dowle', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Tim Beasley', 'Sharon Forsyth', 'Sophie Coad', 'Philippa Wilding', 'Aimee Burton', 'Beth Day', 'Colin Bousfield', 'Nick Reigate', 'Graham Broad', 'Emma Culley', 'Eveey Ruth'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Dave Pound', 'Sue Gaastra', 'Elizabeth Loveder', 'Lynda Lawrence', 'Bertie Chatfield', 'Emma Morris', 'Patrick Coad', 'Katharine Mann', 'Will McDermott', 'Sanchez Simpson', 'Ellen da Costa', 'Phoebe Ponsford', 'Charlotte Regan', 'Lindsey McBratney', 'Alan Wyle', 'Hannah Dare', 'Heather Bokota', 'Henry Richardson', 'Kiah Whitehead', 'Laura Boswell', 'Evan Huntley-Robertson', 'Kiki Stavrakara', 'Stephanie Gaunt', 'Ellie Morrow', 'Teresa Bolger-Hill', 'Ellen McDermott', 'Amanda Carey-McDermott', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Sophie Findlay', 'Lexi Dowle', 'Joey Chan', 'Samantha Stott', 'Kelly Brewer', 'Tim Beasley', 'Sharon Forsyth', 'Sophie Coad', 'Philippa Wilding', 'Aimee Burton', 'Beth Day', 'Colin Bousfield', 'Nick Reigate', 'Graham Broad', 'Emma Culley', 'Eveey Ruth'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Sophie Coad', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Hannah Dare', 'Philippa Wilding', 'Heather Bokota', 'Holly Thompson', 'Kiah Whitehead', 'Laura Boswell', 'Katharine Mann', 'Kelly Brewer', 'Emma Culley', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Phoebe Ponsford', 'Dave Pound', 'Amanda Carey-McDermott', 'Lindsey McBratney', 'Sonia Huntley-Robertson', 'Graham Broad', 'Holly Thompson', 'Henry Richardson', 'Bertie Chatfield', 'Emma Morris', 'Colin Bousfield', 'Patrick Coad', 'Nick Reigate', 'Katharine Mann', 'Joey Chan', 'Tim Beasley', 'Will McDermott', 'Eveey Ruth', 'Sanchez Simpson'}</t>
   </si>
   <si>
     <t>Drink With Me Blocking, Hard Knock Life Blocking</t>
@@ -283,6 +406,42 @@
     <t>Big Spender All Blocking, Why Cause I'm A Guy Blocking</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{46}, {18}, {22}, {42}, {49}]</t>
+  </si>
+  <si>
+    <t>[{18}, {49}]</t>
+  </si>
+  <si>
+    <t>[{18}, {42}]</t>
+  </si>
+  <si>
+    <t>[{41}, {42}]</t>
+  </si>
+  <si>
+    <t>[{46}, {3}, {10}, {15}, {18}, {22}, {28}, {41}, {42}, {49}]</t>
+  </si>
+  <si>
+    <t>[{46}, {3}, {10}, {18}, {49}]</t>
+  </si>
+  <si>
+    <t>[{16, 51}, {19, 52}]</t>
+  </si>
+  <si>
+    <t>[{43, 20}]</t>
+  </si>
+  <si>
+    <t>[{43, 20}, {9}, {29}, {44}]</t>
+  </si>
+  <si>
+    <t>[{24, 54}, {9}]</t>
+  </si>
+  <si>
+    <t>Director_possible_pairs</t>
+  </si>
+  <si>
     <t>{32, 47}</t>
   </si>
   <si>
@@ -322,48 +481,57 @@
     <t>{49}</t>
   </si>
   <si>
-    <t>{'Cara Lynch', 'Lexi Dowle', 'Eveey Ruth', 'Emma Culley', 'Sophie Coad', 'Tim Beasley', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Elizabeth Loveder', 'Patrick Coad', 'Ellen McDermott', 'Laura Boswell', 'Kiah Whitehead', 'Bertie Chatfield', 'Holly Thompson', 'Nick Reigate', 'Kelly Brewer'}</t>
-  </si>
-  <si>
-    <t>{'Kiah Whitehead', 'Kelly Brewer', 'Ellen da Costa'}</t>
-  </si>
-  <si>
-    <t>{'Dave Pound', 'Katharine Mann', 'Alan Wyle', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Sophie Findlay', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Heather Bokota'}</t>
-  </si>
-  <si>
-    <t>{'Dave Pound', 'Katharine Mann', 'Lexi Dowle', 'Alan Wyle', 'Charlotte Regan', 'Aimee Burton', 'Lynda Lawrence', 'Sophie Coad', 'Sue Gaastra', 'Emma Morris', 'Ellen da Costa', 'Will McDermott', 'Sonia Huntley-Robertson', 'Henry Richardson', 'Laura Boswell', 'Patrick Coad', 'Kiah Whitehead', 'Lindsey McBratney', 'Samantha Stott', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Kiki Stavrakara', 'Lucy Ella-Foster', 'Nick Reigate', 'Sophie Findlay', 'Stephanie Gaunt', 'Sanchez Simpson', 'Beth Day', 'Phoebe Ponsford', 'Sharon Forsyth', 'Cara Lynch', 'Hannah Dare', 'Evan Huntley-Robertson', 'Teresa Bolger-Hill', 'Eveey Ruth', 'Emma Culley', 'Ellie Morrow', 'Tim Beasley', 'Elizabeth Loveder', 'Ellen McDermott', 'Bertie Chatfield', 'Colin Bousfield', 'Joey Chan', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Cara Lynch', 'Hannah Dare', 'Laura Boswell', 'Charlotte Regan', 'Kiah Whitehead', 'Emma Culley', 'Holly Thompson', 'Sophie Coad', 'Ellie Morrow', 'Ellen da Costa', 'Kelly Brewer', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Sharon Forsyth', 'Hannah Dare', 'Evan Huntley-Robertson', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Lucy Ella-Foster', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Sharon Forsyth', 'Hannah Dare', 'Charlotte Regan', 'Aimee Burton', 'Ellie Morrow', 'Kelly Brewer', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Cara Lynch', 'Lexi Dowle', 'Charlotte Regan', 'Ellie Morrow', 'Kelly Brewer', 'Ellen da Costa', 'Lucy Ella-Foster', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Hannah Dare', 'Evan Huntley-Robertson', 'Charlotte Regan', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Beth Day', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Cara Lynch', 'Lexi Dowle', 'Laura Boswell', 'Elizabeth Loveder', 'Will McDermott', 'Eveey Ruth', 'Bertie Chatfield', 'Joey Chan', 'Graham Broad', 'Nick Reigate', 'Emma Morris', 'Lucy Ella-Foster', 'Tim Beasley', 'Heather Bokota', 'Sonia Huntley-Robertson', 'Sanchez Simpson', 'Henry Richardson'}</t>
-  </si>
-  <si>
-    <t>{'Hannah Dare', 'Evan Huntley-Robertson', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Philippa Wilding', 'Ellie Morrow', 'Hannah Dare', 'Evan Huntley-Robertson'}</t>
-  </si>
-  <si>
-    <t>{'Ellie Morrow', 'Hannah Dare', 'Lucy Ella-Foster', 'Philippa Wilding'}</t>
+    <t>{'Ellen da Costa', 'Ellen McDermott', 'Elizabeth Loveder', 'Sophie Coad', 'Cara Lynch', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Kiah Whitehead', 'Laura Boswell', 'Patrick Coad', 'Nick Reigate', 'Lexi Dowle', 'Kelly Brewer', 'Tim Beasley', 'Will McDermott', 'Emma Culley', 'Eveey Ruth'}</t>
   </si>
   <si>
     <t>Coffee Break Choreo, Meet the Plastics All Choreo</t>
   </si>
   <si>
+    <t>[{26, 21}, {55}, {56}]</t>
+  </si>
+  <si>
+    <t>[{55}, {56}]</t>
+  </si>
+  <si>
+    <t>[{55}]</t>
+  </si>
+  <si>
+    <t>[{26, 21}, {27}, {33}, {55}, {56}]</t>
+  </si>
+  <si>
+    <t>[{26, 21}, {55}]</t>
+  </si>
+  <si>
+    <t>[{34}, {55}]</t>
+  </si>
+  <si>
+    <t>[{26, 21}, {33}, {34}, {55}]</t>
+  </si>
+  <si>
+    <t>[{26, 21}, {27}, {55}, {56}]</t>
+  </si>
+  <si>
+    <t>[{48, 53}, {16, 51}, {19, 52}, {24, 54}, {39}, {40}]</t>
+  </si>
+  <si>
+    <t>[{16, 51}, {19, 52}, {50, 11}]</t>
+  </si>
+  <si>
+    <t>[{25, 36}, {48, 53}, {16, 51}, {19, 52}, {50, 11}, {24, 54}, {39}, {40}, {44}]</t>
+  </si>
+  <si>
+    <t>[{16, 51}, {19, 52}, {24, 54}]</t>
+  </si>
+  <si>
+    <t>[{16, 51}, {19, 52}, {50, 11}, {38}, {39}, {40}]</t>
+  </si>
+  <si>
+    <t>[{25, 36}, {16, 51}, {19, 52}, {50, 11}, {24, 54}, {38}, {39}, {40}]</t>
+  </si>
+  <si>
+    <t>[{25, 36}, {16, 51}, {19, 52}, {50, 11}, {24, 54}, {44}]</t>
+  </si>
+  <si>
     <t>{30, 23}</t>
   </si>
   <si>
@@ -412,40 +580,31 @@
     <t>{44}</t>
   </si>
   <si>
-    <t>{'Dave Pound', 'Cara Lynch', 'Lexi Dowle', 'Heather Bokota', 'Charlotte Regan', 'Eveey Ruth', 'Emma Culley', 'Sophie Coad', 'Ellie Morrow', 'Tim Beasley', 'Ellen da Costa', 'Emma Morris', 'Will McDermott', 'Henry Richardson', 'Patrick Coad', 'Elizabeth Loveder', 'Laura Boswell', 'Ellen McDermott', 'Bertie Chatfield', 'Graham Broad', 'Nick Reigate', 'Colin Bousfield', 'Lucy Ella-Foster', 'Joey Chan', 'Kelly Brewer', 'Sanchez Simpson', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Lexi Dowle', 'Eveey Ruth', 'Sophie Coad', 'Tim Beasley', 'Emma Morris', 'Ellen da Costa', 'Sonia Huntley-Robertson', 'Elizabeth Loveder', 'Laura Boswell', 'Ellen McDermott', 'Patrick Coad', 'Lindsey McBratney', 'Bertie Chatfield', 'Holly Thompson', 'Graham Broad', 'Nick Reigate', 'Amanda Carey-McDermott', 'Phoebe Ponsford'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Sharon Forsyth', 'Hannah Dare', 'Evan Huntley-Robertson', 'Emma Culley', 'Ellie Morrow', 'Ellen McDermott', 'Kiah Whitehead', 'Lindsey McBratney', 'Holly Thompson', 'Graham Broad', 'Nick Reigate', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Kelly Brewer', 'Sanchez Simpson', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Lexi Dowle', 'Tim Beasley', 'Laura Boswell', 'Evan Huntley-Robertson', 'Lucy Ella-Foster', 'Eveey Ruth', 'Sanchez Simpson'}</t>
-  </si>
-  <si>
-    <t>{'Teresa Bolger-Hill', 'Ellen McDermott', 'Bertie Chatfield', 'Lynda Lawrence', 'Joey Chan', 'Tim Beasley', 'Emma Morris', 'Sanchez Simpson', 'Phoebe Ponsford'}</t>
-  </si>
-  <si>
-    <t>{'Dave Pound', 'Will McDermott', 'Patrick Coad', 'Bertie Chatfield', 'Graham Broad', 'Nick Reigate', 'Colin Bousfield', 'Joey Chan', 'Tim Beasley', 'Sanchez Simpson', 'Henry Richardson'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Cara Lynch', 'Laura Boswell', 'Heather Bokota', 'Emma Culley', 'Sophie Coad', 'Ellen da Costa', 'Sanchez Simpson', 'Sonia Huntley-Robertson'}</t>
-  </si>
-  <si>
-    <t>{'Cara Lynch', 'Lexi Dowle', 'Kiah Whitehead', 'Charlotte Regan', 'Ellie Morrow', 'Kelly Brewer', 'Ellen da Costa', 'Lucy Ella-Foster', 'Heather Bokota', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Katharine Mann', 'Patrick Coad', 'Eveey Ruth', 'Lindsey McBratney', 'Holly Thompson', 'Amanda Carey-McDermott', 'Graham Broad', 'Nick Reigate', 'Emma Morris', 'Sonia Huntley-Robertson', 'Phoebe Ponsford'}</t>
-  </si>
-  <si>
-    <t>{'Hannah Dare', 'Evan Huntley-Robertson', 'Charlotte Regan', 'Holly Thompson', 'Ellie Morrow', 'Kelly Brewer', 'Lucy Ella-Foster', 'Stephanie Gaunt', 'Philippa Wilding'}</t>
-  </si>
-  <si>
-    <t>{'Lexi Dowle', 'Laura Boswell', 'Bertie Chatfield', 'Joey Chan', 'Graham Broad', 'Nick Reigate', 'Emma Morris', 'Lucy Ella-Foster', 'Heather Bokota', 'Sonia Huntley-Robertson'}</t>
-  </si>
-  <si>
-    <t>{'Tim Beasley', 'Emma Culley', 'Ellen da Costa', 'Evan Huntley-Robertson'}</t>
+    <t>{'Ellen da Costa', 'Lucy Ella-Foster', 'Ellen McDermott', 'Dave Pound', 'Charlotte Regan', 'Tim Beasley', 'Elizabeth Loveder', 'Sophie Coad', 'Cara Lynch', 'Philippa Wilding', 'Heather Bokota', 'Graham Broad', 'Henry Richardson', 'Bertie Chatfield', 'Emma Morris', 'Colin Bousfield', 'Laura Boswell', 'Patrick Coad', 'Nick Reigate', 'Lexi Dowle', 'Joey Chan', 'Kelly Brewer', 'Will McDermott', 'Emma Culley', 'Ellie Morrow', 'Eveey Ruth', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Ellen McDermott', 'Phoebe Ponsford', 'Amanda Carey-McDermott', 'Lindsey McBratney', 'Elizabeth Loveder', 'Sophie Coad', 'Sonia Huntley-Robertson', 'Graham Broad', 'Holly Thompson', 'Bertie Chatfield', 'Emma Morris', 'Laura Boswell', 'Patrick Coad', 'Nick Reigate', 'Lexi Dowle', 'Katharine Mann', 'Tim Beasley', 'Eveey Ruth'}</t>
+  </si>
+  <si>
+    <t>{'Ellen McDermott', 'Lucy Ella-Foster', 'Lindsey McBratney', 'Hannah Dare', 'Philippa Wilding', 'Holly Thompson', 'Kiah Whitehead', 'Evan Huntley-Robertson', 'Nick Reigate', 'Kelly Brewer', 'Katharine Mann', 'Stephanie Gaunt', 'Graham Broad', 'Sharon Forsyth', 'Emma Culley', 'Ellie Morrow', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Lucy Ella-Foster', 'Laura Boswell', 'Evan Huntley-Robertson', 'Eveey Ruth', 'Lexi Dowle', 'Tim Beasley', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Phoebe Ponsford', 'Ellen McDermott', 'Emma Morris', 'Teresa Bolger-Hill', 'Lynda Lawrence', 'Joey Chan', 'Tim Beasley', 'Bertie Chatfield', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Colin Bousfield', 'Dave Pound', 'Patrick Coad', 'Graham Broad', 'Nick Reigate', 'Joey Chan', 'Tim Beasley', 'Will McDermott', 'Henry Richardson', 'Bertie Chatfield', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Laura Boswell', 'Katharine Mann', 'Sophie Coad', 'Cara Lynch', 'Sonia Huntley-Robertson', 'Heather Bokota', 'Emma Culley', 'Sanchez Simpson'}</t>
+  </si>
+  <si>
+    <t>{'Ellen da Costa', 'Lucy Ella-Foster', 'Kiah Whitehead', 'Charlotte Regan', 'Lexi Dowle', 'Cara Lynch', 'Philippa Wilding', 'Heather Bokota', 'Kelly Brewer', 'Ellie Morrow'}</t>
+  </si>
+  <si>
+    <t>{'Phoebe Ponsford', 'Emma Morris', 'Amanda Carey-McDermott', 'Patrick Coad', 'Graham Broad', 'Lindsey McBratney', 'Nick Reigate', 'Katharine Mann', 'Sonia Huntley-Robertson', 'Holly Thompson', 'Eveey Ruth'}</t>
   </si>
   <si>
     <t>KONY Chorus Singing, Michael in the Bathroom Chorus Singing and Blocking</t>
@@ -476,6 +635,27 @@
   </si>
   <si>
     <t>Big Spender All Singing, Graham and Nick Beetlejuice Singing</t>
+  </si>
+  <si>
+    <t>[{12, 14}]</t>
+  </si>
+  <si>
+    <t>[{56}]</t>
+  </si>
+  <si>
+    <t>[{18}, {42}, {49}]</t>
+  </si>
+  <si>
+    <t>[{46}, {18}]</t>
+  </si>
+  <si>
+    <t>[{46}, {10}, {15}, {18}, {22}, {28}, {41}, {42}, {49}]</t>
+  </si>
+  <si>
+    <t>[{15}, {18}, {28}, {41}, {42}, {49}]</t>
+  </si>
+  <si>
+    <t>[{46}, {18}, {41}, {42}]</t>
   </si>
 </sst>
 </file>
@@ -833,463 +1013,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0.75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>0.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0.75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>0.25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>2.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>0.75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>0.75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>0.75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>0.75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>0.25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>0.25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>0.75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>0.5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1299,178 +1992,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1480,206 +2245,290 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>0.75</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1689,248 +2538,350 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
